--- a/Data_analyst_excel_titanic.xlsx
+++ b/Data_analyst_excel_titanic.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\OneDrive\Documents\My Tableau Repository\Datasources\"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="8" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="1252">
   <si>
     <t>PassengerId</t>
   </si>
@@ -4416,7 +4416,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[train-2.xlsx]train!PivotTable6</c:name>
+    <c:name>[Data_analyst_excel_titanic.xlsx]train!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4912,7 +4912,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[train-2.xlsx]train!PivotTable4</c:name>
+    <c:name>[Data_analyst_excel_titanic.xlsx]train!PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -5555,6 +5555,688 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data_analyst_excel_titanic.xlsx]train!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>train!$T$82:$T$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Died</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>train!$S$84:$S$111</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>First</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Second</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Third</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>First</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Second</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Third</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>female</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>train!$T$84:$T$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.3255813953488372E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9552238805970144E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34782608695652173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59523809523809523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64556962025316456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84536082474226804</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76744186046511631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8716981132075472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55ED-4F7F-A879-463E214E5CE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>train!$U$82:$U$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Survived</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>train!$S$84:$S$111</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FALSE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cherbourg</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Queenstown</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Southampton</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>First</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Second</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Third</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>First</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Second</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Third</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>female</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>train!$U$84:$U$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.97674418604651159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91044776119402981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65217391304347827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35443037974683544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15463917525773196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23255813953488372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12830188679245283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55ED-4F7F-A879-463E214E5CE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="100"/>
+        <c:axId val="1198911359"/>
+        <c:axId val="1198913855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198911359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198913855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1198913855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198911359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5636,6 +6318,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7130,6 +7852,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7311,7 +8538,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>853</xdr:colOff>
+      <xdr:colOff>5546</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -7404,11 +8631,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206922</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>604345</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Lt Col Rakibul Hassan - Sigs" refreshedDate="44345.56939409722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="891">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Lt Col Rakibul Hassan - Sigs" refreshedDate="44345.850926157407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="891">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -24540,7 +25797,173 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="S82:V111" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="6"/>
+    <field x="4"/>
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Text_Survived" fld="2" subtotal="count" showDataAs="percentOfRow" baseField="16" baseItem="2" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="Y2:AB32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -24756,8 +26179,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="S22:V36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -25256,8 +26679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA12" zoomScale="169" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="U85" zoomScale="145" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK93" sqref="AK93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25278,8 +26701,8 @@
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" customWidth="1"/>
@@ -30169,7 +31592,7 @@
         <v>Southampton</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -30224,7 +31647,7 @@
         <v>Southampton</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -30278,8 +31701,14 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S82" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -30333,8 +31762,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S83" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="T83" t="s">
+        <v>1227</v>
+      </c>
+      <c r="U83" t="s">
+        <v>1</v>
+      </c>
+      <c r="V83" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -30385,8 +31826,20 @@
         <f t="shared" si="9"/>
         <v>Queenstown</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0.25796178343949044</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0.7420382165605095</v>
+      </c>
+      <c r="V84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -30440,8 +31893,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S85" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="T85" s="7">
+        <v>3.1914893617021274E-2</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0.96808510638297873</v>
+      </c>
+      <c r="V85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -30495,8 +31960,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S86" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T86" s="7">
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="U86" s="7">
+        <v>0.97674418604651159</v>
+      </c>
+      <c r="V86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -30550,8 +32027,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S87" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T87" s="7">
+        <v>0</v>
+      </c>
+      <c r="U87" s="7">
+        <v>1</v>
+      </c>
+      <c r="V87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -30605,8 +32094,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S88" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T88" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U88" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="V88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -30657,8 +32158,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S89" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
+      <c r="U89" s="7">
+        <v>1</v>
+      </c>
+      <c r="V89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -30715,8 +32228,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S90" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="T90" s="7">
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="U90" s="7">
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="V90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -30770,8 +32295,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S91" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
+      <c r="U91" s="7">
+        <v>1</v>
+      </c>
+      <c r="V91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -30825,8 +32362,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S92" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="7">
+        <v>1</v>
+      </c>
+      <c r="V92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -30880,8 +32429,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S93" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T93" s="7">
+        <v>8.9552238805970144E-2</v>
+      </c>
+      <c r="U93" s="7">
+        <v>0.91044776119402981</v>
+      </c>
+      <c r="V93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -30938,8 +32499,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S94" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="T94" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="U94" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="V94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -30993,8 +32566,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S95" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T95" s="7">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="U95" s="7">
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="V95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -31048,8 +32633,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S96" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T96" s="7">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="U96" s="7">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="V96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -31100,8 +32697,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S97" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T97" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="U97" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="V97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -31158,8 +32767,20 @@
         <f t="shared" si="9"/>
         <v>Cherbourg</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T98" s="7">
+        <v>0.81109185441941078</v>
+      </c>
+      <c r="U98" s="7">
+        <v>0.18890814558058924</v>
+      </c>
+      <c r="V98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -31216,8 +32837,20 @@
         <f t="shared" si="9"/>
         <v>Cherbourg</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S99" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="T99" s="7">
+        <v>0.63114754098360659</v>
+      </c>
+      <c r="U99" s="7">
+        <v>0.36885245901639346</v>
+      </c>
+      <c r="V99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -31271,8 +32904,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S100" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T100" s="7">
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="U100" s="7">
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="V100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -31326,8 +32971,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S101" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T101" s="7">
+        <v>1</v>
+      </c>
+      <c r="U101" s="7">
+        <v>0</v>
+      </c>
+      <c r="V101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -31381,8 +33038,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S102" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T102" s="7">
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="U102" s="7">
+        <v>0.35443037974683544</v>
+      </c>
+      <c r="V102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -31433,8 +33102,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S103" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="T103" s="7">
+        <v>0.84259259259259256</v>
+      </c>
+      <c r="U103" s="7">
+        <v>0.15740740740740741</v>
+      </c>
+      <c r="V103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -31491,8 +33172,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S104" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T104" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U104" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="V104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -31546,8 +33239,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S105" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T105" s="7">
+        <v>1</v>
+      </c>
+      <c r="U105" s="7">
+        <v>0</v>
+      </c>
+      <c r="V105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -31601,8 +33306,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S106" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T106" s="7">
+        <v>0.84536082474226804</v>
+      </c>
+      <c r="U106" s="7">
+        <v>0.15463917525773196</v>
+      </c>
+      <c r="V106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -31656,8 +33373,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S107" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="T107" s="7">
+        <v>0.86455331412103742</v>
+      </c>
+      <c r="U107" s="7">
+        <v>0.13544668587896252</v>
+      </c>
+      <c r="V107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -31711,8 +33440,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S108" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T108" s="7">
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="U108" s="7">
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="V108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -31763,8 +33504,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S109" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T109" s="7">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="U109" s="7">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="V109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -31818,8 +33571,20 @@
         <f t="shared" si="9"/>
         <v>Southampton</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S110" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="T110" s="7">
+        <v>0.8716981132075472</v>
+      </c>
+      <c r="U110" s="7">
+        <v>0.12830188679245283</v>
+      </c>
+      <c r="V110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -31870,8 +33635,20 @@
         <f t="shared" si="9"/>
         <v>Queenstown</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S111" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="T111" s="7">
+        <v>0.61616161616161613</v>
+      </c>
+      <c r="U111" s="7">
+        <v>0.38383838383838381</v>
+      </c>
+      <c r="V111" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -74918,15 +76695,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId6"/>
+        <x14:slicer r:id="rId7"/>
       </x14:slicerList>
     </ext>
   </extLst>
